--- a/TEO-professors.xlsx
+++ b/TEO-professors.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>cod_professor</t>
   </si>
@@ -19,7 +19,106 @@
     <t>professor_name</t>
   </si>
   <si>
-    <t>preferred_hours</t>
+    <t>cod_preferred_hours</t>
+  </si>
+  <si>
+    <t>PROF_1</t>
+  </si>
+  <si>
+    <t>ADRIELI FLAUTA</t>
+  </si>
+  <si>
+    <t>TER_8-10, TER_10-12, TER_14-16, TER_16-18</t>
+  </si>
+  <si>
+    <t>PROF_2</t>
+  </si>
+  <si>
+    <t>BRENO DEMBOFEXILE</t>
+  </si>
+  <si>
+    <t>SEX_8-10, SEX_10-12, SEX_14-16, SEX_16-18</t>
+  </si>
+  <si>
+    <t>PROF_3</t>
+  </si>
+  <si>
+    <t>DANILO POSER</t>
+  </si>
+  <si>
+    <t>PROF_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKMN-GO </t>
+  </si>
+  <si>
+    <t>SEG_8-10, SEG_10-12, SEG_14-16, SEG_16-18, TER_8-10, TER_10-12, TER_14-16, TER_16-18</t>
+  </si>
+  <si>
+    <t>PROF_5</t>
+  </si>
+  <si>
+    <t>GRAPH QUEEN</t>
+  </si>
+  <si>
+    <t>PROF_6</t>
+  </si>
+  <si>
+    <t>DCC's MVP</t>
+  </si>
+  <si>
+    <t>PROF_7</t>
+  </si>
+  <si>
+    <t>THIS IS NOT PARALLELISM!</t>
+  </si>
+  <si>
+    <t>PROF_8</t>
+  </si>
+  <si>
+    <t>DATA WHISPERER</t>
+  </si>
+  <si>
+    <t>PROF_9</t>
+  </si>
+  <si>
+    <t>STRICT MONK</t>
+  </si>
+  <si>
+    <t>PROF_10</t>
+  </si>
+  <si>
+    <t>MARCEL SILVA</t>
+  </si>
+  <si>
+    <t>PROF_11</t>
+  </si>
+  <si>
+    <t>SOPHISTICATED</t>
+  </si>
+  <si>
+    <t>SEG_8-10, SEG_10-12, SEG_14-16, SEG_16-18, TER_8-10, TER_10-12, TER_14-16, TER_16-18, QUA_8-10, QUA_10-12, QUA_14-16, QUA_16-18</t>
+  </si>
+  <si>
+    <t>PROF_12</t>
+  </si>
+  <si>
+    <t>SCHOTS LTD.'s CEO</t>
+  </si>
+  <si>
+    <t>PROF_13</t>
+  </si>
+  <si>
+    <t>GRAMPA BOY</t>
+  </si>
+  <si>
+    <t>PROF_14</t>
+  </si>
+  <si>
+    <t>UBISOFT</t>
+  </si>
+  <si>
+    <t>SEG_8-10, SEG_10-12, SEG_14-16, SEG_16-18, SEX_8-10, SEX_10-12, SEX_14-16, SEX_16-18</t>
   </si>
 </sst>
 </file>
@@ -52,15 +151,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -277,6 +379,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="25.71"/>
+    <col customWidth="1" min="3" max="3" width="90.14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -290,79 +396,137 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
-        <v>15.0</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
